--- a/docs/電腦打字國小中文乙組決賽名冊.xlsx
+++ b/docs/電腦打字國小中文乙組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國小中文乙組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="199">
   <si>
     <t>序</t>
   </si>
@@ -45,19 +45,49 @@
     <t>電腦打字國小中文乙組</t>
   </si>
   <si>
-    <t>大甲區日南國小</t>
-  </si>
-  <si>
-    <t>邱兆廷</t>
-  </si>
-  <si>
-    <t>吳姿慧</t>
-  </si>
-  <si>
-    <t>wh36e2</t>
-  </si>
-  <si>
-    <t>yg14e8</t>
+    <t>大甲區東明國小</t>
+  </si>
+  <si>
+    <t>吳明儒</t>
+  </si>
+  <si>
+    <t>陳加弘</t>
+  </si>
+  <si>
+    <t>g71x3</t>
+  </si>
+  <si>
+    <t>x32h7</t>
+  </si>
+  <si>
+    <t>大安區大安國小</t>
+  </si>
+  <si>
+    <t>許育銨</t>
+  </si>
+  <si>
+    <t>吳慧菁</t>
+  </si>
+  <si>
+    <t>yg81rs9</t>
+  </si>
+  <si>
+    <t>kf24wh1</t>
+  </si>
+  <si>
+    <t>大安區海墘國小</t>
+  </si>
+  <si>
+    <t>何佩璇</t>
+  </si>
+  <si>
+    <t>李思賢</t>
+  </si>
+  <si>
+    <t>my8y4</t>
+  </si>
+  <si>
+    <t>cdx77nc4</t>
   </si>
   <si>
     <t>大肚區大忠國小</t>
@@ -69,313 +99,262 @@
     <t>李淑珍</t>
   </si>
   <si>
-    <t>m15wh4</t>
-  </si>
-  <si>
-    <t>anc18h3</t>
-  </si>
-  <si>
-    <t>大肚區追分國小</t>
-  </si>
-  <si>
-    <t>許睿璿</t>
-  </si>
-  <si>
-    <t>張永龍</t>
-  </si>
-  <si>
-    <t>kf15xb5</t>
-  </si>
-  <si>
-    <t>p86pe6</t>
-  </si>
-  <si>
-    <t>吳孟屏</t>
-  </si>
-  <si>
-    <t>gw65b9</t>
-  </si>
-  <si>
-    <t>ygw59j7</t>
-  </si>
-  <si>
-    <t>大肚區瑞峰國小</t>
-  </si>
-  <si>
-    <t>陳利德</t>
-  </si>
-  <si>
-    <t>莊啟宗</t>
-  </si>
-  <si>
-    <t>an10w2</t>
-  </si>
-  <si>
-    <t>tv15b7</t>
-  </si>
-  <si>
-    <t>游子珩</t>
-  </si>
-  <si>
-    <t>et19b1</t>
-  </si>
-  <si>
-    <t>xbj65h8</t>
-  </si>
-  <si>
-    <t>大里區美群國小</t>
-  </si>
-  <si>
-    <t>張菀妤</t>
-  </si>
-  <si>
-    <t>黃紹維</t>
-  </si>
-  <si>
-    <t>hpe53n4</t>
-  </si>
-  <si>
-    <t>e64gw8</t>
-  </si>
-  <si>
-    <t>曾彥維</t>
-  </si>
-  <si>
-    <t>m27yg6</t>
-  </si>
-  <si>
-    <t>jk44rs2</t>
-  </si>
-  <si>
-    <t>林育宏</t>
-  </si>
-  <si>
-    <t>an9pe6</t>
-  </si>
-  <si>
-    <t>n71rs6</t>
-  </si>
-  <si>
-    <t>陳姿慧</t>
-  </si>
-  <si>
-    <t>pe44b8</t>
-  </si>
-  <si>
-    <t>a41fr2</t>
-  </si>
-  <si>
-    <t>太平區長億國小</t>
-  </si>
-  <si>
-    <t>徐楚善</t>
-  </si>
-  <si>
-    <t>謝東諭</t>
-  </si>
-  <si>
-    <t>my9s7</t>
-  </si>
-  <si>
-    <t>hpe81p5</t>
-  </si>
-  <si>
-    <t>蕭鈺權</t>
-  </si>
-  <si>
-    <t>bj75fr5</t>
-  </si>
-  <si>
-    <t>tv93dx7</t>
-  </si>
-  <si>
-    <t>北屯區仁愛國小</t>
-  </si>
-  <si>
-    <t>陳湘渝</t>
-  </si>
-  <si>
-    <t>江秀紋</t>
-  </si>
-  <si>
-    <t>ygw18wh1</t>
-  </si>
-  <si>
-    <t>tv9e9</t>
-  </si>
-  <si>
-    <t>北屯區四維國小</t>
-  </si>
-  <si>
-    <t>蔡宇翔</t>
-  </si>
-  <si>
-    <t>盧韋儒</t>
-  </si>
-  <si>
-    <t>jk29r2</t>
-  </si>
-  <si>
-    <t>ncd76et4</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>劉品佑</t>
-  </si>
-  <si>
-    <t>謝佳恩</t>
-  </si>
-  <si>
-    <t>hp74w5</t>
-  </si>
-  <si>
-    <t>s76b5</t>
-  </si>
-  <si>
-    <t>楊晨玄</t>
-  </si>
-  <si>
-    <t>pe64cd3</t>
-  </si>
-  <si>
-    <t>cdx53dx2</t>
-  </si>
-  <si>
-    <t>施丞璦</t>
-  </si>
-  <si>
-    <t>t47n7</t>
-  </si>
-  <si>
-    <t>et76et4</t>
-  </si>
-  <si>
-    <t>外埔區外埔國小</t>
-  </si>
-  <si>
-    <t>林育豪</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>myg40v2</t>
-  </si>
-  <si>
-    <t>dx28fr7</t>
-  </si>
-  <si>
-    <t>劉沛欣</t>
-  </si>
-  <si>
-    <t>陳文鴻</t>
-  </si>
-  <si>
-    <t>yg75tv9</t>
-  </si>
-  <si>
-    <t>my12c9</t>
-  </si>
-  <si>
-    <t>后里區月眉國小</t>
-  </si>
-  <si>
-    <t>唐珮綺</t>
-  </si>
-  <si>
-    <t>趙姿婷</t>
-  </si>
-  <si>
-    <t>my70jk8</t>
-  </si>
-  <si>
-    <t>et90fr7</t>
-  </si>
-  <si>
-    <t>西屯區泰安國小</t>
-  </si>
-  <si>
-    <t>王紀堯</t>
-  </si>
-  <si>
-    <t>吳家瑋</t>
-  </si>
-  <si>
-    <t>frs30p8</t>
-  </si>
-  <si>
-    <t>rsm49kf6</t>
-  </si>
-  <si>
-    <t>西區忠明國小</t>
-  </si>
-  <si>
-    <t>吳叔慎</t>
-  </si>
-  <si>
-    <t>王姿琁</t>
-  </si>
-  <si>
-    <t>t67cd4</t>
-  </si>
-  <si>
-    <t>fr74g4</t>
+    <t>jk5v3</t>
+  </si>
+  <si>
+    <t>tv14sm4</t>
+  </si>
+  <si>
+    <t>潘佳駿</t>
+  </si>
+  <si>
+    <t>d40f5</t>
+  </si>
+  <si>
+    <t>dx73fr5</t>
+  </si>
+  <si>
+    <t>林逸凡</t>
+  </si>
+  <si>
+    <t>etv70dx2</t>
+  </si>
+  <si>
+    <t>gw58nc4</t>
+  </si>
+  <si>
+    <t>大里區草湖國小</t>
+  </si>
+  <si>
+    <t>林柔方</t>
+  </si>
+  <si>
+    <t>游淑雅</t>
+  </si>
+  <si>
+    <t>tv39t3</t>
+  </si>
+  <si>
+    <t>k87j4</t>
+  </si>
+  <si>
+    <t>大雅區陽明國小</t>
+  </si>
+  <si>
+    <t>蔡善程</t>
+  </si>
+  <si>
+    <t>巫俐敏</t>
+  </si>
+  <si>
+    <t>s95dx3</t>
+  </si>
+  <si>
+    <t>my88et2</t>
+  </si>
+  <si>
+    <t>太平區坪林國小</t>
+  </si>
+  <si>
+    <t>王子寧</t>
+  </si>
+  <si>
+    <t>陳永陸</t>
+  </si>
+  <si>
+    <t>k50f8</t>
+  </si>
+  <si>
+    <t>gw4et3</t>
+  </si>
+  <si>
+    <t>北區太平國小</t>
+  </si>
+  <si>
+    <t>陳睿雅</t>
+  </si>
+  <si>
+    <t>劉安哲</t>
+  </si>
+  <si>
+    <t>smy43r5</t>
+  </si>
+  <si>
+    <t>f26t8</t>
+  </si>
+  <si>
+    <t>北區健行國小</t>
+  </si>
+  <si>
+    <t>劉銘棋</t>
+  </si>
+  <si>
+    <t>王環源</t>
+  </si>
+  <si>
+    <t>gwh46c5</t>
+  </si>
+  <si>
+    <t>yg65x4</t>
+  </si>
+  <si>
+    <t>后里區七星國小</t>
+  </si>
+  <si>
+    <t>郭亭吟</t>
+  </si>
+  <si>
+    <t>于興龍</t>
+  </si>
+  <si>
+    <t>b80my5</t>
+  </si>
+  <si>
+    <t>jk29et7</t>
+  </si>
+  <si>
+    <t>西屯區大仁國小</t>
+  </si>
+  <si>
+    <t>江炘恩</t>
+  </si>
+  <si>
+    <t>徐連政</t>
+  </si>
+  <si>
+    <t>nc74n3</t>
+  </si>
+  <si>
+    <t>wh35tv9</t>
+  </si>
+  <si>
+    <t>黃育婷</t>
+  </si>
+  <si>
+    <t>kfr27rs7</t>
+  </si>
+  <si>
+    <t>nc46p5</t>
+  </si>
+  <si>
+    <t>西屯區重慶國小</t>
+  </si>
+  <si>
+    <t>林宇謙</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>g12sm4</t>
+  </si>
+  <si>
+    <t>tv35et9</t>
+  </si>
+  <si>
+    <t>林宥箴</t>
+  </si>
+  <si>
+    <t>kf1n4</t>
+  </si>
+  <si>
+    <t>w64my8</t>
   </si>
   <si>
     <t>西區忠信國小</t>
   </si>
   <si>
-    <t>譚雅予</t>
-  </si>
-  <si>
-    <t>黃偵惠</t>
-  </si>
-  <si>
-    <t>my55p6</t>
-  </si>
-  <si>
-    <t>y71g5</t>
-  </si>
-  <si>
-    <t>賴怡媛</t>
-  </si>
-  <si>
-    <t>nc96tv6</t>
-  </si>
-  <si>
-    <t>rs98cd5</t>
+    <t>陳予寬</t>
+  </si>
+  <si>
+    <t>鄭定華</t>
+  </si>
+  <si>
+    <t>jk10fr5</t>
+  </si>
+  <si>
+    <t>frs5k5</t>
+  </si>
+  <si>
+    <t>蘇昱澄</t>
+  </si>
+  <si>
+    <t>kfr73yg6</t>
+  </si>
+  <si>
+    <t>bjk61f6</t>
+  </si>
+  <si>
+    <t>沙鹿區公明國小</t>
+  </si>
+  <si>
+    <t>蔡博勝</t>
+  </si>
+  <si>
+    <t>柯慶輝</t>
+  </si>
+  <si>
+    <t>tv45tv7</t>
+  </si>
+  <si>
+    <t>m45et6</t>
   </si>
   <si>
     <t>沙鹿區文光國小</t>
   </si>
   <si>
-    <t>白秉瑋</t>
-  </si>
-  <si>
-    <t>郭家富</t>
-  </si>
-  <si>
-    <t>m25jk2</t>
-  </si>
-  <si>
-    <t>f26x8</t>
+    <t>陳秀瑄</t>
+  </si>
+  <si>
+    <t>卓宛俞</t>
+  </si>
+  <si>
+    <t>cd19m2</t>
+  </si>
+  <si>
+    <t>gw51j3</t>
+  </si>
+  <si>
+    <t>洪秉佑</t>
+  </si>
+  <si>
+    <t>bj75tv8</t>
+  </si>
+  <si>
+    <t>cd73kf2</t>
+  </si>
+  <si>
+    <t>廖俊宇</t>
+  </si>
+  <si>
+    <t>et60yg9</t>
+  </si>
+  <si>
+    <t>anc40gw8</t>
+  </si>
+  <si>
+    <t>李沛璇</t>
+  </si>
+  <si>
+    <t>t80fr3</t>
+  </si>
+  <si>
+    <t>ncd71tv2</t>
   </si>
   <si>
     <t>沙鹿區鹿峰國小</t>
   </si>
   <si>
-    <t>白羽宸</t>
+    <t>謝憲宏</t>
   </si>
   <si>
     <t>劉景銘</t>
   </si>
   <si>
-    <t>xb26j2</t>
-  </si>
-  <si>
-    <t>dx24f6</t>
+    <t>etv27s5</t>
+  </si>
+  <si>
+    <t>jkf70yg2</t>
   </si>
   <si>
     <t>東區進德國小</t>
@@ -384,265 +363,259 @@
     <t>鄭旭凱</t>
   </si>
   <si>
-    <t>林敬涵</t>
-  </si>
-  <si>
-    <t>f86bj9</t>
-  </si>
-  <si>
-    <t>r71g7</t>
-  </si>
-  <si>
-    <t>南屯區鎮平國小</t>
-  </si>
-  <si>
-    <t>謝君威</t>
-  </si>
-  <si>
-    <t>謝忠興</t>
-  </si>
-  <si>
-    <t>n71x2</t>
-  </si>
-  <si>
-    <t>bj95yg2</t>
-  </si>
-  <si>
-    <t>烏日區烏日國小</t>
-  </si>
-  <si>
-    <t>張郁庭</t>
-  </si>
-  <si>
-    <t>王偉仰</t>
-  </si>
-  <si>
-    <t>jkf17t2</t>
-  </si>
-  <si>
-    <t>h32hp4</t>
-  </si>
-  <si>
-    <t>王季崴</t>
-  </si>
-  <si>
-    <t>b55rs2</t>
-  </si>
-  <si>
-    <t>t6w2</t>
+    <t>王添進</t>
+  </si>
+  <si>
+    <t>rsm21dx7</t>
+  </si>
+  <si>
+    <t>sm31jk4</t>
+  </si>
+  <si>
+    <t>黃義茗</t>
+  </si>
+  <si>
+    <t>myg91k3</t>
+  </si>
+  <si>
+    <t>sm75h8</t>
+  </si>
+  <si>
+    <t>東區樂業國小</t>
+  </si>
+  <si>
+    <t>林愉庭</t>
+  </si>
+  <si>
+    <t>劉雅芳</t>
+  </si>
+  <si>
+    <t>j77c8</t>
+  </si>
+  <si>
+    <t>d13d7</t>
+  </si>
+  <si>
+    <t>黃鈞涵</t>
+  </si>
+  <si>
+    <t>kfr39kf3</t>
+  </si>
+  <si>
+    <t>et27k1</t>
+  </si>
+  <si>
+    <t>東勢區中山國小</t>
+  </si>
+  <si>
+    <t>余至洺</t>
+  </si>
+  <si>
+    <t>詹智強</t>
+  </si>
+  <si>
+    <t>ygw15t8</t>
+  </si>
+  <si>
+    <t>s87pe8</t>
+  </si>
+  <si>
+    <t>東勢區新盛國小</t>
+  </si>
+  <si>
+    <t>黃柏諺</t>
+  </si>
+  <si>
+    <t>潘信佑</t>
+  </si>
+  <si>
+    <t>cdx94n7</t>
+  </si>
+  <si>
+    <t>jk85dx7</t>
   </si>
   <si>
     <t>神岡區圳堵國小</t>
   </si>
   <si>
-    <t>蘇子婷</t>
+    <t>徐可璇</t>
   </si>
   <si>
     <t>蔡阜鋼</t>
   </si>
   <si>
-    <t>d65j2</t>
-  </si>
-  <si>
-    <t>f47tv8</t>
-  </si>
-  <si>
-    <t>王柏勛</t>
-  </si>
-  <si>
-    <t>g47sm2</t>
-  </si>
-  <si>
-    <t>n27h3</t>
-  </si>
-  <si>
-    <t>神岡區神岡國小</t>
-  </si>
-  <si>
-    <t>詹思玥</t>
-  </si>
-  <si>
-    <t>林奎光</t>
-  </si>
-  <si>
-    <t>h14s4</t>
-  </si>
-  <si>
-    <t>pe17m8</t>
+    <t>pet20sm3</t>
+  </si>
+  <si>
+    <t>pe93g6</t>
+  </si>
+  <si>
+    <t>劉家蓁</t>
+  </si>
+  <si>
+    <t>rs95t6</t>
+  </si>
+  <si>
+    <t>nc53y5</t>
+  </si>
+  <si>
+    <t>胡天愛</t>
+  </si>
+  <si>
+    <t>hp55kf2</t>
+  </si>
+  <si>
+    <t>bjk81hp7</t>
+  </si>
+  <si>
+    <t>神岡區岸裡國小</t>
+  </si>
+  <si>
+    <t>郭晉維</t>
+  </si>
+  <si>
+    <t>楊濬丞</t>
+  </si>
+  <si>
+    <t>my23nc5</t>
+  </si>
+  <si>
+    <t>nc16m7</t>
   </si>
   <si>
     <t>神岡區豐洲國小</t>
   </si>
   <si>
-    <t>何睿哲</t>
+    <t>張品超</t>
   </si>
   <si>
     <t>羅明昌</t>
   </si>
   <si>
-    <t>bj22m9</t>
-  </si>
-  <si>
-    <t>g75tv8</t>
+    <t>g15k6</t>
+  </si>
+  <si>
+    <t>rsm65d6</t>
   </si>
   <si>
     <t>清水區三田國小</t>
   </si>
   <si>
-    <t>王珮瑜</t>
-  </si>
-  <si>
-    <t>陳佩姍</t>
-  </si>
-  <si>
-    <t>t15kf3</t>
-  </si>
-  <si>
-    <t>whp59y8</t>
-  </si>
-  <si>
-    <t>清水區西寧國小</t>
-  </si>
-  <si>
-    <t>翁萱珆</t>
-  </si>
-  <si>
-    <t>丁浩展</t>
-  </si>
-  <si>
-    <t>x2sm5</t>
-  </si>
-  <si>
-    <t>w58r3</t>
-  </si>
-  <si>
-    <t>新社區新社國小</t>
-  </si>
-  <si>
-    <t>張庭愷</t>
-  </si>
-  <si>
-    <t>王千維</t>
-  </si>
-  <si>
-    <t>kfr50tv5</t>
-  </si>
-  <si>
-    <t>cdx55j3</t>
+    <t>張辰誼</t>
+  </si>
+  <si>
+    <t>鄭博旗</t>
+  </si>
+  <si>
+    <t>frs62b9</t>
+  </si>
+  <si>
+    <t>m4g5</t>
+  </si>
+  <si>
+    <t>林士翔</t>
+  </si>
+  <si>
+    <t>x64e8</t>
+  </si>
+  <si>
+    <t>x73kf1</t>
+  </si>
+  <si>
+    <t>清水區高美國小</t>
+  </si>
+  <si>
+    <t>楊立閎</t>
+  </si>
+  <si>
+    <t>黃威淇</t>
+  </si>
+  <si>
+    <t>k52n4</t>
+  </si>
+  <si>
+    <t>g32tv5</t>
   </si>
   <si>
     <t>龍井區龍山國小</t>
   </si>
   <si>
-    <t>何睦翔</t>
+    <t>蔡宥霖</t>
   </si>
   <si>
     <t>陳韻如</t>
   </si>
   <si>
-    <t>ygw15v3</t>
-  </si>
-  <si>
-    <t>f17yg2</t>
-  </si>
-  <si>
-    <t>龍井區龍井國小</t>
-  </si>
-  <si>
-    <t>陳宗佑</t>
-  </si>
-  <si>
-    <t>趙子如</t>
-  </si>
-  <si>
-    <t>frs78v8</t>
-  </si>
-  <si>
-    <t>cd96dx3</t>
-  </si>
-  <si>
-    <t>龍井區龍泉國小</t>
-  </si>
-  <si>
-    <t>吳聖葆</t>
-  </si>
-  <si>
-    <t>蔡金蓉</t>
-  </si>
-  <si>
-    <t>dx37dx6</t>
-  </si>
-  <si>
-    <t>ygw83et9</t>
-  </si>
-  <si>
-    <t>豐原區福陽國小</t>
-  </si>
-  <si>
-    <t>劉文得</t>
-  </si>
-  <si>
-    <t>蘇峻民</t>
-  </si>
-  <si>
-    <t>ygw84r8</t>
-  </si>
-  <si>
-    <t>kf46a5</t>
-  </si>
-  <si>
-    <t>豐原區豐村國小</t>
-  </si>
-  <si>
-    <t>林勇銓</t>
-  </si>
-  <si>
-    <t>林郁原</t>
-  </si>
-  <si>
-    <t>dx49d8</t>
-  </si>
-  <si>
-    <t>s32m2</t>
-  </si>
-  <si>
-    <t>蕭丞哲</t>
-  </si>
-  <si>
-    <t>xbj31n5</t>
-  </si>
-  <si>
-    <t>rs72c8</t>
-  </si>
-  <si>
-    <t>豐原區豐原國小</t>
-  </si>
-  <si>
-    <t>王騰億</t>
-  </si>
-  <si>
-    <t>陳信雄</t>
-  </si>
-  <si>
-    <t>f81m1</t>
-  </si>
-  <si>
-    <t>cd22rs4</t>
-  </si>
-  <si>
-    <t>霧峰區四德國小</t>
-  </si>
-  <si>
-    <t>何承頤</t>
-  </si>
-  <si>
-    <t>周世忠</t>
-  </si>
-  <si>
-    <t>rs4my6</t>
-  </si>
-  <si>
-    <t>m15t1</t>
+    <t>b97y9</t>
+  </si>
+  <si>
+    <t>my1xb4</t>
+  </si>
+  <si>
+    <t>林宥成</t>
+  </si>
+  <si>
+    <t>yg30gw8</t>
+  </si>
+  <si>
+    <t>yg58dx3</t>
+  </si>
+  <si>
+    <t>陳咨涵</t>
+  </si>
+  <si>
+    <t>j86v4</t>
+  </si>
+  <si>
+    <t>e52t4</t>
+  </si>
+  <si>
+    <t>豐原區翁子國小</t>
+  </si>
+  <si>
+    <t>洪劭慈</t>
+  </si>
+  <si>
+    <t>陳俊宏</t>
+  </si>
+  <si>
+    <t>tv86t6</t>
+  </si>
+  <si>
+    <t>fr29rs7</t>
+  </si>
+  <si>
+    <t>邱絜莘</t>
+  </si>
+  <si>
+    <t>cd28my4</t>
+  </si>
+  <si>
+    <t>e99et3</t>
+  </si>
+  <si>
+    <t>霧峰區吉峰國小</t>
+  </si>
+  <si>
+    <t>巫潔宜</t>
+  </si>
+  <si>
+    <t>阮培洲</t>
+  </si>
+  <si>
+    <t>hp14g4</t>
+  </si>
+  <si>
+    <t>rs26p1</t>
+  </si>
+  <si>
+    <t>戴筠臻</t>
+  </si>
+  <si>
+    <t>t94m4</t>
+  </si>
+  <si>
+    <t>j29c4</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1620,8 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1750,19 +1724,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1773,13 +1747,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>29</v>
@@ -1796,13 +1770,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>32</v>
@@ -1842,19 +1816,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1865,19 +1839,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1888,19 +1862,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1911,19 +1885,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1934,19 +1908,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1957,19 +1931,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1980,19 +1954,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2003,19 +1977,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2026,19 +2000,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2049,19 +2023,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2072,19 +2046,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2095,19 +2069,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2118,19 +2092,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2141,19 +2115,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2164,19 +2138,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2187,19 +2161,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2210,19 +2184,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2233,19 +2207,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2256,19 +2230,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2279,19 +2253,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2302,19 +2276,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2325,19 +2299,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2348,19 +2322,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2371,19 +2345,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2394,19 +2368,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2417,19 +2391,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2440,19 +2414,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2463,19 +2437,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2486,19 +2460,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2509,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2532,19 +2506,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2555,19 +2529,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2578,19 +2552,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2601,19 +2575,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2624,19 +2598,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2647,19 +2621,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2670,19 +2644,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2693,19 +2667,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
